--- a/Teileliste.xlsx
+++ b/Teileliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\gesichert\github\honigautomat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920287E8-D316-4981-9266-CECA90C93F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF969EDA-DD02-4D59-AB91-8B68E9797BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31335" yWindow="1290" windowWidth="24945" windowHeight="21180" xr2:uid="{97770CAC-3B54-4B52-950E-CA345E4FEEE4}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Arduino</t>
   </si>
   <si>
-    <t>https://www.az-delivery.de/</t>
-  </si>
-  <si>
     <t>Adapter Display</t>
   </si>
   <si>
@@ -332,13 +329,16 @@
     <t>https://www.az-delivery.de/pages/search-results-page?q=lcd%20display%2016x2</t>
   </si>
   <si>
-    <t>https://www.az-delivery.de/pages/search-results-page?q=relais%2012v%2016</t>
-  </si>
-  <si>
     <t>https://www.hornbach.de/p/klarsichtmagazin-5-fach-600-mm-grau-multistore/8831612/</t>
   </si>
   <si>
     <t>https://www.ebay.de/sch/i.html?_from=R40&amp;_trksid=p2332490.m570.l1313&amp;_nkw=Drucktaster+Schalter+Button+12v+16mm&amp;_sacat=0</t>
+  </si>
+  <si>
+    <t>https://www.az-delivery.de/products/16-relais-modul</t>
+  </si>
+  <si>
+    <t>https://www.az-delivery.de/pages/search-results-page?q=lcd%20display%2016x2%20i2c</t>
   </si>
 </sst>
 </file>
@@ -548,6 +548,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -556,9 +559,6 @@
     </xf>
     <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1002,6 +1002,358 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>562672</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>343545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Grafik 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F329DCC-3D12-C137-15E6-1C10DCBBEDEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334625" y="4495800"/>
+          <a:ext cx="2086672" cy="895995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>246049</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>239072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Grafik 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBE7104-8F72-813D-9071-671D36F128B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12658725" y="3181350"/>
+          <a:ext cx="1731949" cy="1905947"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127760</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>333874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Grafik 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A78DAD7C-ADEC-FC4B-84CD-595353B0AA00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10839450" y="3114674"/>
+          <a:ext cx="1146935" cy="1476875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>647699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>497749</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>105146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Grafik 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6A6635-CB0F-A79D-9951-AF6E396AAEA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10506075" y="1819274"/>
+          <a:ext cx="1850299" cy="1190997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476762</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>733424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>412544</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>733990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Grafik 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{750AE4A5-13F5-F781-43F9-27C6048ADCA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13097387" y="1133474"/>
+          <a:ext cx="697782" cy="772091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>155881</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Grafik 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C7266B-423E-74DD-9F27-F136950ACDF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10658475" y="428625"/>
+          <a:ext cx="2118031" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>316065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>65120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Grafik 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E60D03-A456-1791-95DC-B9F184AFDC50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10829925" y="5554815"/>
+          <a:ext cx="3724275" cy="1111130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>369755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>77524</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Grafik 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF87510-54A8-4768-EB60-8F08CDB92084}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10677525" y="6970580"/>
+          <a:ext cx="2782624" cy="1183383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1307,8 +1659,8 @@
   </sheetPr>
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1709,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -1379,7 +1731,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -1401,7 +1753,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -1423,7 +1775,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -1440,12 +1792,12 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -1464,10 +1816,10 @@
     </row>
     <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -1486,10 +1838,10 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -1508,10 +1860,10 @@
     </row>
     <row r="10" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -1530,10 +1882,10 @@
     </row>
     <row r="11" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="6">
         <v>5</v>
@@ -1552,10 +1904,10 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -1574,10 +1926,10 @@
     </row>
     <row r="13" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -1596,10 +1948,10 @@
     </row>
     <row r="14" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="6">
         <v>5</v>
@@ -1619,7 +1971,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="23">
         <v>2</v>
@@ -1627,10 +1979,10 @@
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="23">
         <v>2.79</v>
@@ -1638,7 +1990,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="23">
         <v>2</v>
@@ -1646,10 +1998,10 @@
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="C18" s="17">
         <v>1</v>
@@ -1660,10 +2012,10 @@
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="F19" s="23">
         <v>3.15</v>
@@ -1671,51 +2023,51 @@
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>48</v>
       </c>
       <c r="F20" s="23">
         <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="29">
+        <v>3.53</v>
+      </c>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="28">
-        <v>3.53</v>
-      </c>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="25"/>
       <c r="F24" s="23">
         <v>3.53</v>
@@ -1725,68 +2077,68 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="13" t="s">
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="27" t="s">
+      <c r="D28" s="29">
+        <v>6</v>
+      </c>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="28">
-        <v>6</v>
-      </c>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="25"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="25"/>
       <c r="F31" s="23">
         <v>6</v>
@@ -1796,43 +2148,43 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
+        <v>65</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
+        <v>64</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="28">
+        <v>22</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="29">
         <v>6.28</v>
       </c>
       <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="25"/>
       <c r="F35" s="23">
         <v>6.28</v>
@@ -1842,61 +2194,61 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
+        <v>17</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="25"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="25"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="25"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="25"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="28">
+        <v>22</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="29">
         <v>2.16</v>
       </c>
       <c r="E40" s="25"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
+        <v>35</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="25"/>
       <c r="F41" s="23">
         <v>2.16</v>
@@ -1906,77 +2258,77 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="25"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+      <c r="B43" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="25"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="14" t="s">
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="25"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="25"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+      <c r="B45" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+      <c r="B46" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="25"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="25"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="25"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
       <c r="E46" s="25"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="25"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
+      <c r="A48" s="27"/>
       <c r="B48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="28">
+        <v>22</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="29">
         <v>4.34</v>
       </c>
       <c r="E48" s="25"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
+      <c r="A49" s="27"/>
       <c r="B49" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28"/>
+        <v>36</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
       <c r="E49" s="25"/>
       <c r="F49" s="23">
         <v>4.34</v>
@@ -1986,54 +2338,54 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
+      <c r="A50" s="27"/>
       <c r="B50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="25"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="27"/>
+      <c r="B51" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="25"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="14" t="s">
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="25"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="27"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="25"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="27"/>
+      <c r="B53" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="25"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="25"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="25"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="25"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F56" s="23">
         <v>2</v>
@@ -2041,7 +2393,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2049,17 +2401,17 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D61">
         <v>3.38</v>
@@ -2075,43 +2427,43 @@
         <v>330</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="C66" t="s">
         <v>74</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>75</v>
-      </c>
-      <c r="D66" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2119,40 +2471,40 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B74" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D80" s="23">
         <v>9.49</v>
@@ -2160,7 +2512,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D81" s="23">
         <v>25.99</v>
@@ -2168,7 +2520,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D82" s="23">
         <v>39.9</v>
@@ -2176,7 +2528,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D83" s="23">
         <v>5</v>
@@ -2188,18 +2540,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E47:E54"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
     <mergeCell ref="E40:E46"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="C28:C33"/>
@@ -2211,6 +2551,18 @@
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="C40:C46"/>
     <mergeCell ref="D40:D46"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E47:E54"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="A54:D54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{F70DF216-BE85-4716-BA3D-3B01FC614819}"/>
@@ -2219,21 +2571,20 @@
     <hyperlink ref="B6" r:id="rId4" xr:uid="{40C4DE05-16DE-4A53-AC50-E847A9AAA7B6}"/>
     <hyperlink ref="B7" r:id="rId5" xr:uid="{E0C22233-5BDF-44E6-BE73-E93FB4E4D4B5}"/>
     <hyperlink ref="B8" r:id="rId6" xr:uid="{C6211C2A-5F66-4EA3-8F2D-F011DE016F41}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{4993A8DE-6E76-4236-829A-AE2DAF199D6D}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{65C0F70A-6855-429B-8C22-2B1B9988F505}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{76F30790-6448-4176-8540-2A56567839E9}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{0BF96E12-F51B-4072-A70B-22F4C71441DB}"/>
-    <hyperlink ref="B22" r:id="rId11" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=5194437" xr:uid="{905C9871-08D6-4776-991C-47C39803845D}"/>
-    <hyperlink ref="B28" r:id="rId12" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=5194437" xr:uid="{B025554A-6835-4D67-A53C-C0BCD0343488}"/>
-    <hyperlink ref="B34" r:id="rId13" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=6504526" xr:uid="{605FFA6B-1696-45B3-BDD6-191DE7DE2D68}"/>
-    <hyperlink ref="B40" r:id="rId14" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=6504526" xr:uid="{2C82C9A5-FD93-41C8-8591-FF3318BB9979}"/>
-    <hyperlink ref="B48" r:id="rId15" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=6504526" xr:uid="{64A282B7-EC5F-442D-8F44-DA4DEDBA6D65}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{32A8FD11-113F-4FF9-9D33-F02CE8742860}"/>
-    <hyperlink ref="B20" r:id="rId17" xr:uid="{06375D87-F318-498C-8ED7-72A7EF44AF1B}"/>
-    <hyperlink ref="B10" r:id="rId18" xr:uid="{46E358A9-98E2-4745-BC01-F6D24E7B61EE}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{65C0F70A-6855-429B-8C22-2B1B9988F505}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{76F30790-6448-4176-8540-2A56567839E9}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{0BF96E12-F51B-4072-A70B-22F4C71441DB}"/>
+    <hyperlink ref="B22" r:id="rId10" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=5194437" xr:uid="{905C9871-08D6-4776-991C-47C39803845D}"/>
+    <hyperlink ref="B28" r:id="rId11" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=5194437" xr:uid="{B025554A-6835-4D67-A53C-C0BCD0343488}"/>
+    <hyperlink ref="B34" r:id="rId12" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=6504526" xr:uid="{605FFA6B-1696-45B3-BDD6-191DE7DE2D68}"/>
+    <hyperlink ref="B40" r:id="rId13" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=6504526" xr:uid="{2C82C9A5-FD93-41C8-8591-FF3318BB9979}"/>
+    <hyperlink ref="B48" r:id="rId14" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=6504526" xr:uid="{64A282B7-EC5F-442D-8F44-DA4DEDBA6D65}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{32A8FD11-113F-4FF9-9D33-F02CE8742860}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{06375D87-F318-498C-8ED7-72A7EF44AF1B}"/>
+    <hyperlink ref="B10" r:id="rId17" xr:uid="{6EE5D953-2AAA-452A-88C2-AAE82992DF00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId19"/>
-  <drawing r:id="rId20"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId18"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
--- a/Teileliste.xlsx
+++ b/Teileliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\gesichert\github\honigautomat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF969EDA-DD02-4D59-AB91-8B68E9797BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD640E0-A28F-4507-8FB7-E15905495E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31335" yWindow="1290" windowWidth="24945" windowHeight="21180" xr2:uid="{97770CAC-3B54-4B52-950E-CA345E4FEEE4}"/>
+    <workbookView xWindow="18915" yWindow="2430" windowWidth="30480" windowHeight="17700" xr2:uid="{97770CAC-3B54-4B52-950E-CA345E4FEEE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -233,9 +233,6 @@
     <t>https://www.ebay.de/itm/184891176473</t>
   </si>
   <si>
-    <t>Power On (12v / 16mm)</t>
-  </si>
-  <si>
     <t>Drucktaster (5v / 16 mm)</t>
   </si>
   <si>
@@ -339,6 +336,15 @@
   </si>
   <si>
     <t>https://www.az-delivery.de/pages/search-results-page?q=lcd%20display%2016x2%20i2c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keypad </t>
+  </si>
+  <si>
+    <t>bei Nutzung vom Keypad werden die externen Knöpfe nicht mehr genutzt - man benötigt also nur noch die internen (Prog &amp; Refill) sowie den externen Einschalttaster, sofern man Powersave nutzt</t>
+  </si>
+  <si>
+    <t>Power On (12v / 16mm) TASTER (nicht permanent)</t>
   </si>
 </sst>
 </file>
@@ -548,9 +554,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -559,6 +562,9 @@
     </xf>
     <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1354,6 +1360,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142170</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>105767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Grafik 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9717091-D01A-D441-2AF8-B807C1622DF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762001" y="30841950"/>
+          <a:ext cx="8190794" cy="4068167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1657,10 +1707,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,7 +1759,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -1731,7 +1781,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -1753,7 +1803,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -1775,7 +1825,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -1797,7 +1847,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -1819,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -1836,12 +1886,12 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -1863,7 +1913,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -1882,10 +1932,10 @@
     </row>
     <row r="11" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="6">
         <v>5</v>
@@ -1904,7 +1954,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>53</v>
@@ -1982,7 +2032,7 @@
         <v>50</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" s="23">
         <v>2.79</v>
@@ -1990,7 +2040,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="23">
         <v>2</v>
@@ -2033,41 +2083,41 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="28">
         <v>3.53</v>
       </c>
       <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="25"/>
       <c r="F24" s="23">
         <v>3.53</v>
@@ -2077,68 +2127,68 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="28">
         <v>6</v>
       </c>
       <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="25"/>
       <c r="F31" s="23">
         <v>6</v>
@@ -2148,43 +2198,43 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
+        <v>64</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
+        <v>63</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="28">
         <v>6.28</v>
       </c>
       <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="25"/>
       <c r="F35" s="23">
         <v>6.28</v>
@@ -2194,61 +2244,61 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
+        <v>65</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="28">
         <v>2.16</v>
       </c>
       <c r="E40" s="25"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="25"/>
       <c r="F41" s="23">
         <v>2.16</v>
@@ -2258,77 +2308,77 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="25"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="25"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="25"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="25"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="25"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
       <c r="E46" s="25"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
       <c r="E47" s="25"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="28">
         <v>4.34</v>
       </c>
       <c r="E48" s="25"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="25"/>
       <c r="F49" s="23">
         <v>4.34</v>
@@ -2338,44 +2388,44 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="25"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="29"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="25"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="25"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="25"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2411,7 +2461,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61">
         <v>3.38</v>
@@ -2429,31 +2479,31 @@
     </row>
     <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="C66" t="s">
         <v>73</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>74</v>
-      </c>
-      <c r="D66" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2471,40 +2521,40 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B74" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D80" s="23">
         <v>9.49</v>
@@ -2512,7 +2562,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D81" s="23">
         <v>25.99</v>
@@ -2520,7 +2570,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D82" s="23">
         <v>39.9</v>
@@ -2528,7 +2578,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D83" s="23">
         <v>5</v>
@@ -2538,8 +2588,28 @@
         <v>80.38</v>
       </c>
     </row>
+    <row r="114" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>89</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E47:E54"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
     <mergeCell ref="E40:E46"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="C28:C33"/>
@@ -2551,18 +2621,6 @@
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="C40:C46"/>
     <mergeCell ref="D40:D46"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E47:E54"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="A54:D54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{F70DF216-BE85-4716-BA3D-3B01FC614819}"/>
